--- a/room_seating_distribution.xlsx
+++ b/room_seating_distribution.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Go</t>
+          <t>Bird</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Minette</t>
+          <t>Amigo</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vriend</t>
+          <t>Chula</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Buddy</t>
+          <t>Guy</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chula</t>
+          <t>Nena</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>Chap</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Lad</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lad</t>
+          <t>Tishke</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chica</t>
+          <t>Minette</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Chica</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Compadre</t>
+          <t>Dudette</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kerel</t>
+          <t>Go</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Weon</t>
+          <t>Hermano</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Guy</t>
+          <t>Kerel</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nena</t>
+          <t>Lass</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chap</t>
+          <t>Gast</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Dudette</t>
+          <t>Dude</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tishke</t>
+          <t>Vriend</t>
         </is>
       </c>
     </row>

--- a/room_seating_distribution.xlsx
+++ b/room_seating_distribution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Gast</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Amigo</t>
+          <t>Fella</t>
         </is>
       </c>
     </row>
@@ -497,24 +497,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chula</t>
+          <t>Chap</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Table 2</t>
+          <t>Table 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Guy</t>
+          <t>Weon</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nena</t>
+          <t>Go</t>
         </is>
       </c>
     </row>
@@ -543,46 +543,46 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chap</t>
+          <t>Chica</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lad</t>
+          <t>Tishke</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tishke</t>
+          <t>Minette</t>
         </is>
       </c>
     </row>
@@ -594,70 +594,70 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Minette</t>
+          <t>Lass</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gayo</t>
+          <t>Dude</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chica</t>
+          <t>Lad</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dudette</t>
+          <t>Compadre</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Go</t>
+          <t>Dudette</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,14 +684,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hermano</t>
+          <t>Guy</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,109 +701,160 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kerel</t>
+          <t>Hombre</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lass</t>
+          <t>Pey</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gast</t>
+          <t>Bird</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pey</t>
+          <t>Chula</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Table 7</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>Buddy</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Table 7</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Dude</t>
+          <t>Poto</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Table 7</t>
+          <t>Table 6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Seat 1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Kerel</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Table 6</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Seat 2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Gayo</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Table 6</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Seat 3</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Vriend</t>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mano</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Table 6</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Seat 4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mina</t>
         </is>
       </c>
     </row>

--- a/room_seating_distribution.xlsx
+++ b/room_seating_distribution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gast</t>
+          <t>Mano</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fella</t>
+          <t>Hermano</t>
         </is>
       </c>
     </row>
@@ -497,24 +497,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chap</t>
+          <t>Vriend</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Table 1</t>
+          <t>Table 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Seat 4</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weon</t>
+          <t>Guy</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Go</t>
+          <t>Weon</t>
         </is>
       </c>
     </row>
@@ -543,46 +543,46 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chica</t>
+          <t>Go</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Table 2</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tishke</t>
+          <t>Nena</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Table 2</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Seat 4</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Minette</t>
+          <t>Kerel</t>
         </is>
       </c>
     </row>
@@ -594,70 +594,70 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lass</t>
+          <t>Amigo</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dude</t>
+          <t>Chula</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lad</t>
+          <t>Pey</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Seat 4</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Compadre</t>
+          <t>Fella</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dudette</t>
+          <t>Minette</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,14 +684,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Guy</t>
+          <t>Chap</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,160 +701,262 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Chico</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Seat 4</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pey</t>
+          <t>Poto</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 6</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Dudette</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chula</t>
+          <t>Dude</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 7</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Buddy</t>
+          <t>Lass</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Seat 4</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Poto</t>
+          <t>Bird</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 7</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kerel</t>
+          <t>Mina</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gayo</t>
+          <t>Compadre</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 8</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>Chica</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Seat 4</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>Gayo</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Table 9</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Seat 1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tishke</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Table 9</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Seat 2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Table 9</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Seat 3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Lad</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Table 10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Seat 1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Buddy</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Table 10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Seat 2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Gast</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Table 10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Seat 3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Empty seat</t>
         </is>
       </c>
     </row>

--- a/room_seating_distribution.xlsx
+++ b/room_seating_distribution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>Chap</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hermano</t>
+          <t>Tishke</t>
         </is>
       </c>
     </row>
@@ -497,24 +497,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vriend</t>
+          <t>Amigo</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Table 2</t>
+          <t>Table 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Guy</t>
+          <t>Chula</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Weon</t>
+          <t>Gayo</t>
         </is>
       </c>
     </row>
@@ -543,46 +543,46 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Go</t>
+          <t>Kerel</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nena</t>
+          <t>Dude</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Table 3</t>
+          <t>Table 2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kerel</t>
+          <t>Mina</t>
         </is>
       </c>
     </row>
@@ -594,70 +594,70 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Amigo</t>
+          <t>Weon</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chula</t>
+          <t>Poto</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pey</t>
+          <t>Chico</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Table 4</t>
+          <t>Table 3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fella</t>
+          <t>Go</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,14 +684,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Chap</t>
+          <t>Lad</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Table 5</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,167 +701,167 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Chica</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Poto</t>
+          <t>Lass</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dudette</t>
+          <t>Fella</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Table 6</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Dude</t>
+          <t>Guy</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Table 7</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lass</t>
+          <t>Gast</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Table 7</t>
+          <t>Table 5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Compadre</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Table 7</t>
+          <t>Table 6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>Pey</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Table 8</t>
+          <t>Table 6</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Compadre</t>
+          <t>Hermano</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Table 8</t>
+          <t>Table 6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Chica</t>
+          <t>Bird</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Table 8</t>
+          <t>Table 6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Seat 3</t>
+          <t>Seat 4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Gayo</t>
+          <t>Mano</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Table 9</t>
+          <t>Table 7</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -871,14 +871,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tishke</t>
+          <t>Vriend</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Table 9</t>
+          <t>Table 7</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -895,7 +895,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Table 9</t>
+          <t>Table 7</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -905,56 +905,90 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lad</t>
+          <t>Buddy</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Table 10</t>
+          <t>Table 7</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Seat 1</t>
+          <t>Seat 4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Buddy</t>
+          <t>Nena</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Table 10</t>
+          <t>Table 8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Seat 2</t>
+          <t>Seat 1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gast</t>
+          <t>Dudette</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Table 10</t>
+          <t>Table 8</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Seat 2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Empty seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Table 8</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Seat 3</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Empty seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Table 8</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Seat 4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Empty seat</t>
         </is>
